--- a/data/faq.xlsx
+++ b/data/faq.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0185EA2A-138F-4D3A-85C9-2E883EB218D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D9900-DAED-4E2F-AAF3-18ED0B6B4620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>복수전공은 무엇인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신청/포기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연계전공 포기절차는 어떻게 되나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소단위전공과정의 신청절차는 어떻게 될까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,14 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>융합전공, 융합부전공의 신청절차는 어떻게 될까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공, 부전공의 신청절차는 어떻게 될까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 복수전공/부전공 희망 학부장 확인, 4. 복수전공/부전공 희망전공 사무실에 제출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다전공 신청은 언제 하나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다전공 제도는 매 학기 초(4월, 10월)와 학기 말(6월, 12월)에 신청 가능합니다. 자세한 공지는 홈페이지 학사공지를 참고하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,6 +606,46 @@
   </si>
   <si>
     <t>주전공 외에 복수, 부, 융합전공 등 다양한 학위를 취득하여 융합형 인재로 성장할 수 있도록 지원하는 제도입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공, 부전공의 신청절차/방법은 어떻게 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공, 융합부전공의 신청절차/방법은 어떻게 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정의 신청절차/방법은 어떻게 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업 이수 학점 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공, 부전공, 융합전공, 융합부전공을 신청하면 본전공의 졸업 학점이 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 신청은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 포기(취소)는 언제 할 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 포기는 별도의 신청 기간 없이 해당 다전공 사무실에 포기서를 제출하면 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,19 +978,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,7 +1001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -989,32 +1009,32 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1022,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,10 +1053,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,21 +1064,21 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1066,32 +1086,32 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1099,12 +1119,12 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1113,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1132,32 +1152,32 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1165,23 +1185,23 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -1190,9 +1210,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -1203,204 +1223,226 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/faq.xlsx
+++ b/data/faq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D9900-DAED-4E2F-AAF3-18ED0B6B4620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC7E13-DC60-48FF-96CF-49AB20FB81E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>졸업 이수 학점 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복수전공, 부전공, 융합전공, 융합부전공을 신청하면 본전공의 졸업 학점이 줄어듭니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +642,10 @@
   </si>
   <si>
     <t>다전공 포기는 별도의 신청 기간 없이 해당 다전공 사무실에 포기서를 제출하면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업 이수 학점이 바뀌나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,16 +981,16 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,9 +1012,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
@@ -1023,9 +1023,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,9 +1122,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1133,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,9 +1155,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>67</v>
@@ -1166,9 +1166,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
@@ -1177,7 +1177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1199,9 +1199,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -1210,9 +1210,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -1223,9 +1223,9 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>62</v>
@@ -1236,9 +1236,9 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -1249,9 +1249,9 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>64</v>
@@ -1262,9 +1262,9 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
@@ -1275,7 +1275,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1286,9 +1286,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
@@ -1297,9 +1297,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>74</v>
@@ -1308,9 +1308,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>75</v>
@@ -1319,9 +1319,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>65</v>
@@ -1330,7 +1330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -1385,18 +1385,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1418,31 +1418,31 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>